--- a/Sura/DataSource - Emision Hogar Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD6485-2FF6-408B-A7A7-C59100958987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35DA7C-B8A6-427C-BC8A-51C3F135165F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>3953632394</v>
+        <v>8847544113</v>
       </c>
       <c r="F2">
         <v>2344</v>

--- a/Sura/DataSource - Emision Hogar Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar Enlatada.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35DA7C-B8A6-427C-BC8A-51C3F135165F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE6D8E-810D-4B26-9AE7-E4F898F3E4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -144,19 +145,19 @@
     <t>gw</t>
   </si>
   <si>
-    <t>ZAMORASEIS</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>VIAMONTE</t>
   </si>
 </sst>
 </file>
@@ -486,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +566,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -577,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>8847544113</v>
+        <v>5746832029</v>
       </c>
       <c r="F2">
         <v>2344</v>
@@ -595,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -611,224 +612,241 @@
       </c>
       <c r="Q2">
         <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>1143792935</v>
-      </c>
-      <c r="F3">
-        <v>2344</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>1143792935</v>
-      </c>
-      <c r="F4">
-        <v>2344</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>8965431747</v>
-      </c>
-      <c r="F5">
-        <v>2344</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>1741072045</v>
-      </c>
-      <c r="F7">
-        <v>2344</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7">
-        <v>200000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{672DC8EE-094B-4423-B429-840246ABB8CF}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{D1C7DB48-3434-4DB6-9794-EBF6EFE5EBA1}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{A40EEDEE-A343-4A3D-A60F-7CBB0A1DBF53}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{8E6722AB-3497-45DE-B678-D8E30EA62EDE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453AD975-6BC8-46A0-9F1C-88ECA459C3FA}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1">
+        <v>1143792935</v>
+      </c>
+      <c r="F1">
+        <v>2344</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>1143792935</v>
+      </c>
+      <c r="F2">
+        <v>2344</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>8965431747</v>
+      </c>
+      <c r="F3">
+        <v>2344</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>1741072045</v>
+      </c>
+      <c r="F5">
+        <v>2344</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{672DC8EE-094B-4423-B429-840246ABB8CF}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{D1C7DB48-3434-4DB6-9794-EBF6EFE5EBA1}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{A40EEDEE-A343-4A3D-A60F-7CBB0A1DBF53}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{8E6722AB-3497-45DE-B678-D8E30EA62EDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sura/DataSource - Emision Hogar Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE6D8E-810D-4B26-9AE7-E4F898F3E4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBD00A8-D568-46B5-8FFF-57974B656460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>5746832029</v>
+        <v>3199801311</v>
       </c>
       <c r="F2">
         <v>2344</v>

--- a/Sura/DataSource - Emision Hogar Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBD00A8-D568-46B5-8FFF-57974B656460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F825183-E731-4FFF-B66D-6C7BB1E55158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - Emision Hogar Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F825183-E731-4FFF-B66D-6C7BB1E55158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDAF76A-82DB-4D9E-A835-3CEDE55A8BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>3199801311</v>
+        <v>7145989545</v>
       </c>
       <c r="F2">
         <v>2344</v>

--- a/Sura/DataSource - Emision Hogar Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDAF76A-82DB-4D9E-A835-3CEDE55A8BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6108E-3BDE-494A-A737-27053165EF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
         <v>22</v>
       </c>
       <c r="Q2">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>

--- a/Sura/DataSource - Emision Hogar Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6108E-3BDE-494A-A737-27053165EF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED18E40-81D2-4DCE-86AA-F6634535542A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,13 +151,13 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>VIAMONTE</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,10 +566,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>7145989545</v>
+        <v>7068873718</v>
       </c>
       <c r="F2">
         <v>2344</v>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
